--- a/StructureDefinition-ext-R5-ExplanationOfBenefit.addItem.xlsx
+++ b/StructureDefinition-ext-R5-ExplanationOfBenefit.addItem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9769" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9773" uniqueCount="638">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -542,7 +542,7 @@
     <t>Extension.extension:provider.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -581,15 +581,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for the revenue or cost centers supplying the service and/or products.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ex-revenue-center-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:productOrService</t>
   </si>
   <si>
@@ -622,12 +613,6 @@
   </si>
   <si>
     <t>Extension.extension:productOrService.value[x]</t>
-  </si>
-  <si>
-    <t>Allowable service and product codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-service-uscls-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:productOrServiceEnd</t>
@@ -693,7 +678,7 @@
     <t>Extension.extension:request.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|0.0.1-snapshot-3|DeviceRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|0.0.1-snapshot-3|MedicationRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionOrder|0.0.1-snapshot-3|NutritionOrder|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|0.0.1-snapshot-3|ServiceRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-SupplyRequest|0.0.1-snapshot-3|SupplyRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-VisionPrescription|0.0.1-snapshot-3|VisionPrescription|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|DeviceRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|MedicationRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionOrder|NutritionOrder|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|ServiceRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-SupplyRequest|SupplyRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-VisionPrescription|VisionPrescription)
 </t>
   </si>
   <si>
@@ -731,12 +716,6 @@
     <t>Extension.extension:modifier.value[x]</t>
   </si>
   <si>
-    <t>Item type or modifiers codes, eg for Oral whether the treatment is cosmetic or associated with TMJ, or an appliance was lost or stolen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-claim-modifiers-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:programCode</t>
   </si>
   <si>
@@ -769,12 +748,6 @@
   </si>
   <si>
     <t>Extension.extension:programCode.value[x]</t>
-  </si>
-  <si>
-    <t>Program specific reason codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ex-program-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:serviced</t>
@@ -848,13 +821,7 @@
   </si>
   <si>
     <t>CodeableConcept
-AddressReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)</t>
-  </si>
-  <si>
-    <t>Place where the service is rendered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-service-place-for-R4</t>
+AddressReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)</t>
   </si>
   <si>
     <t>Extension.extension:patientPaid</t>
@@ -923,7 +890,7 @@
     <t>Extension.extension:quantity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1177,8 +1144,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:site.extension:concept.id</t>
@@ -1196,7 +1162,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-tooth-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-tooth-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:site.extension:reference</t>
@@ -1211,8 +1177,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:site.extension:reference.id</t>
@@ -1227,7 +1192,7 @@
     <t>Extension.extension:bodySite.extension:site.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|0.0.1-snapshot-3|BodyStructure|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|BodyStructure)
 </t>
   </si>
   <si>
@@ -1279,9 +1244,6 @@
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:subSite.value[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-surface-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.url</t>
@@ -2405,8 +2367,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="108.796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.23046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -5937,13 +5899,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5981,13 +5943,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -6012,16 +5974,16 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6090,7 +6052,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -6193,7 +6155,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -6298,7 +6260,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -6341,7 +6303,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6403,7 +6365,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>122</v>
@@ -6432,13 +6394,13 @@
         <v>178</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6464,13 +6426,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6508,13 +6470,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6539,14 +6501,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6615,7 +6577,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -6718,7 +6680,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -6823,7 +6785,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -6866,7 +6828,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6928,7 +6890,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>122</v>
@@ -6957,10 +6919,10 @@
         <v>178</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6987,11 +6949,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -7029,13 +6993,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -7060,14 +7024,14 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -7136,7 +7100,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -7239,7 +7203,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -7344,7 +7308,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -7387,7 +7351,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -7449,7 +7413,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -7475,13 +7439,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7552,13 +7516,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7583,16 +7547,16 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7661,7 +7625,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>105</v>
@@ -7764,7 +7728,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>107</v>
@@ -7869,7 +7833,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -7912,7 +7876,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7974,7 +7938,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -8003,13 +7967,13 @@
         <v>178</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8035,13 +7999,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8079,13 +8043,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -8110,16 +8074,16 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8188,7 +8152,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -8291,7 +8255,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -8396,7 +8360,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -8439,7 +8403,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8501,7 +8465,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -8530,13 +8494,13 @@
         <v>178</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8562,13 +8526,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8606,13 +8570,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8637,14 +8601,14 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8713,7 +8677,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -8816,7 +8780,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -8921,7 +8885,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -8964,7 +8928,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -9026,7 +8990,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -9052,13 +9016,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9129,13 +9093,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -9160,14 +9124,14 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9236,7 +9200,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -9339,7 +9303,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -9444,7 +9408,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -9487,7 +9451,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -9549,7 +9513,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -9575,13 +9539,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9608,13 +9572,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9652,13 +9616,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9683,14 +9647,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9759,7 +9723,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -9862,7 +9826,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -9967,7 +9931,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -10010,7 +9974,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -10072,7 +10036,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>122</v>
@@ -10098,13 +10062,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10175,13 +10139,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -10206,14 +10170,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10282,7 +10246,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>105</v>
@@ -10385,7 +10349,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>107</v>
@@ -10490,7 +10454,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>113</v>
@@ -10533,7 +10497,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10595,7 +10559,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>122</v>
@@ -10621,13 +10585,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10698,13 +10662,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10729,14 +10693,14 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10805,7 +10769,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>105</v>
@@ -10908,7 +10872,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>107</v>
@@ -11013,7 +10977,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>113</v>
@@ -11056,7 +11020,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -11118,7 +11082,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>122</v>
@@ -11144,13 +11108,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11221,13 +11185,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -11252,16 +11216,16 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11330,7 +11294,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>105</v>
@@ -11433,7 +11397,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>107</v>
@@ -11538,7 +11502,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>113</v>
@@ -11581,7 +11545,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11643,7 +11607,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>122</v>
@@ -11669,16 +11633,16 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11748,13 +11712,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11779,14 +11743,14 @@
         <v>93</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11855,7 +11819,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>105</v>
@@ -11958,7 +11922,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>107</v>
@@ -12063,7 +12027,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>113</v>
@@ -12106,7 +12070,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -12168,7 +12132,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>122</v>
@@ -12194,13 +12158,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12271,13 +12235,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -12302,16 +12266,16 @@
         <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12380,7 +12344,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>105</v>
@@ -12483,7 +12447,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>107</v>
@@ -12588,7 +12552,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>113</v>
@@ -12631,7 +12595,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12693,7 +12657,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>122</v>
@@ -12719,16 +12683,16 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12798,13 +12762,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12829,14 +12793,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12905,7 +12869,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>105</v>
@@ -13008,7 +12972,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>107</v>
@@ -13111,13 +13075,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -13142,16 +13106,16 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -13220,10 +13184,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13323,10 +13287,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13426,13 +13390,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>77</v>
@@ -13457,10 +13421,10 @@
         <v>93</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -13531,10 +13495,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13634,10 +13598,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13739,10 +13703,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13782,7 +13746,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>77</v>
@@ -13844,10 +13808,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13873,13 +13837,13 @@
         <v>87</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -13887,7 +13851,7 @@
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>77</v>
@@ -13949,13 +13913,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>77</v>
@@ -13980,14 +13944,14 @@
         <v>93</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -14056,10 +14020,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14159,10 +14123,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14264,10 +14228,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14307,7 +14271,7 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="S114" t="s" s="2">
         <v>77</v>
@@ -14369,10 +14333,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14398,10 +14362,10 @@
         <v>178</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -14428,11 +14392,11 @@
         <v>77</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="Y115" s="2"/>
       <c r="Z115" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>77</v>
@@ -14470,13 +14434,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>77</v>
@@ -14501,14 +14465,14 @@
         <v>93</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>77</v>
@@ -14577,10 +14541,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14680,10 +14644,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14785,10 +14749,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14828,7 +14792,7 @@
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="S119" t="s" s="2">
         <v>77</v>
@@ -14890,10 +14854,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14916,13 +14880,13 @@
         <v>77</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -14993,10 +14957,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15036,7 +15000,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -15098,10 +15062,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15124,13 +15088,13 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -15201,13 +15165,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -15232,14 +15196,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -15308,10 +15272,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15411,10 +15375,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15516,10 +15480,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15559,7 +15523,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15621,10 +15585,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15650,10 +15614,10 @@
         <v>178</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15680,11 +15644,13 @@
         <v>77</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y127" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z127" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>77</v>
@@ -15722,7 +15688,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>113</v>
@@ -15765,7 +15731,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>77</v>
@@ -15827,7 +15793,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>122</v>
@@ -15853,13 +15819,13 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -15930,13 +15896,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>77</v>
@@ -15961,14 +15927,14 @@
         <v>93</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>77</v>
@@ -16037,7 +16003,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>105</v>
@@ -16140,7 +16106,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>107</v>
@@ -16245,7 +16211,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>113</v>
@@ -16288,7 +16254,7 @@
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="S133" t="s" s="2">
         <v>77</v>
@@ -16350,7 +16316,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>122</v>
@@ -16379,10 +16345,10 @@
         <v>123</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -16453,13 +16419,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>77</v>
@@ -16484,14 +16450,14 @@
         <v>93</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>77</v>
@@ -16560,7 +16526,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>105</v>
@@ -16663,7 +16629,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>107</v>
@@ -16768,7 +16734,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>113</v>
@@ -16811,7 +16777,7 @@
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>77</v>
@@ -16873,7 +16839,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>122</v>
@@ -16899,13 +16865,13 @@
         <v>77</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -16976,13 +16942,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>77</v>
@@ -17007,14 +16973,14 @@
         <v>93</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>77</v>
@@ -17083,7 +17049,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>105</v>
@@ -17186,7 +17152,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>107</v>
@@ -17291,7 +17257,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>113</v>
@@ -17334,7 +17300,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -17396,7 +17362,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>122</v>
@@ -17422,13 +17388,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -17499,13 +17465,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -17533,11 +17499,11 @@
         <v>81</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -17606,7 +17572,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>105</v>
@@ -17709,7 +17675,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>107</v>
@@ -17812,7 +17778,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>107</v>
@@ -17850,7 +17816,7 @@
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17919,10 +17885,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -18022,10 +17988,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -18127,10 +18093,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -18170,7 +18136,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -18232,10 +18198,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18335,7 +18301,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>107</v>
@@ -18373,7 +18339,7 @@
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -18442,10 +18408,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18545,10 +18511,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18650,10 +18616,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18693,7 +18659,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18755,10 +18721,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18814,13 +18780,13 @@
         <v>77</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>77</v>
@@ -18858,13 +18824,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>77</v>
@@ -18889,16 +18855,16 @@
         <v>93</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>77</v>
@@ -18967,10 +18933,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -19070,10 +19036,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19175,10 +19141,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19218,7 +19184,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -19280,10 +19246,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19309,13 +19275,13 @@
         <v>178</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
@@ -19341,13 +19307,13 @@
         <v>77</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>77</v>
@@ -19385,13 +19351,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>77</v>
@@ -19416,14 +19382,14 @@
         <v>93</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -19492,10 +19458,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19595,10 +19561,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19700,10 +19666,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19743,7 +19709,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19805,10 +19771,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19834,10 +19800,10 @@
         <v>178</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -19864,11 +19830,13 @@
         <v>77</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y167" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z167" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>77</v>
@@ -19906,13 +19874,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>77</v>
@@ -19937,16 +19905,16 @@
         <v>93</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -20015,10 +19983,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -20118,10 +20086,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20223,10 +20191,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20266,7 +20234,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>77</v>
@@ -20328,10 +20296,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20357,13 +20325,13 @@
         <v>178</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
@@ -20389,13 +20357,13 @@
         <v>77</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>77</v>
@@ -20433,13 +20401,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20464,14 +20432,14 @@
         <v>93</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20540,10 +20508,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20643,10 +20611,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20748,10 +20716,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20791,7 +20759,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20853,10 +20821,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20879,13 +20847,13 @@
         <v>77</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -20956,13 +20924,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>77</v>
@@ -20987,14 +20955,14 @@
         <v>93</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -21063,10 +21031,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -21166,10 +21134,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21271,10 +21239,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -21314,7 +21282,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -21376,10 +21344,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21402,13 +21370,13 @@
         <v>77</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -21479,13 +21447,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -21510,14 +21478,14 @@
         <v>93</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21586,10 +21554,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21689,10 +21657,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21794,10 +21762,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21837,7 +21805,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21899,10 +21867,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21925,13 +21893,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -22002,13 +21970,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -22033,16 +22001,16 @@
         <v>93</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -22111,10 +22079,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -22214,10 +22182,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22319,10 +22287,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22362,7 +22330,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -22424,10 +22392,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22450,16 +22418,16 @@
         <v>77</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -22529,13 +22497,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -22560,14 +22528,14 @@
         <v>93</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -22636,10 +22604,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22739,10 +22707,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22844,10 +22812,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22887,7 +22855,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>77</v>
@@ -22949,10 +22917,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22975,13 +22943,13 @@
         <v>77</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -23052,13 +23020,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>77</v>
@@ -23083,16 +23051,16 @@
         <v>93</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>77</v>
@@ -23161,10 +23129,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23264,10 +23232,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23369,10 +23337,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23412,7 +23380,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>77</v>
@@ -23474,10 +23442,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23500,16 +23468,16 @@
         <v>77</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
@@ -23579,13 +23547,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>77</v>
@@ -23610,14 +23578,14 @@
         <v>93</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>77</v>
@@ -23686,10 +23654,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -23789,10 +23757,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23894,10 +23862,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -23937,7 +23905,7 @@
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" t="s" s="2">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>77</v>
@@ -23999,10 +23967,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -24028,10 +23996,10 @@
         <v>123</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -24102,13 +24070,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D208" t="s" s="2">
         <v>77</v>
@@ -24133,14 +24101,14 @@
         <v>93</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>77</v>
@@ -24209,10 +24177,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24312,10 +24280,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24417,10 +24385,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24460,7 +24428,7 @@
       </c>
       <c r="Q211" s="2"/>
       <c r="R211" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="S211" t="s" s="2">
         <v>77</v>
@@ -24522,10 +24490,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24548,13 +24516,13 @@
         <v>77</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -24625,13 +24593,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>77</v>
@@ -24656,14 +24624,14 @@
         <v>93</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" t="s" s="2">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>77</v>
@@ -24732,10 +24700,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -24835,10 +24803,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -24940,10 +24908,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -24983,7 +24951,7 @@
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>77</v>
@@ -25045,10 +25013,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -25071,13 +25039,13 @@
         <v>77</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -25148,13 +25116,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="D218" t="s" s="2">
         <v>77</v>
@@ -25182,11 +25150,11 @@
         <v>81</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>77</v>
@@ -25255,10 +25223,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25358,10 +25326,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25461,10 +25429,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C221" t="s" s="2">
         <v>147</v>
@@ -25499,7 +25467,7 @@
       </c>
       <c r="N221" s="2"/>
       <c r="O221" t="s" s="2">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>77</v>
@@ -25568,10 +25536,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25671,10 +25639,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -25776,10 +25744,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -25819,7 +25787,7 @@
       </c>
       <c r="Q224" s="2"/>
       <c r="R224" t="s" s="2">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="S224" t="s" s="2">
         <v>77</v>
@@ -25881,10 +25849,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -25984,10 +25952,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C226" t="s" s="2">
         <v>169</v>
@@ -26022,7 +25990,7 @@
       </c>
       <c r="N226" s="2"/>
       <c r="O226" t="s" s="2">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>77</v>
@@ -26091,10 +26059,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -26194,10 +26162,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -26299,10 +26267,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -26342,7 +26310,7 @@
       </c>
       <c r="Q229" s="2"/>
       <c r="R229" t="s" s="2">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="S229" t="s" s="2">
         <v>77</v>
@@ -26404,10 +26372,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -26463,13 +26431,13 @@
         <v>77</v>
       </c>
       <c r="X230" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Z230" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AA230" t="s" s="2">
         <v>77</v>
@@ -26507,13 +26475,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D231" t="s" s="2">
         <v>77</v>
@@ -26538,16 +26506,16 @@
         <v>93</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="P231" t="s" s="2">
         <v>77</v>
@@ -26616,10 +26584,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -26719,10 +26687,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -26824,10 +26792,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -26867,7 +26835,7 @@
       </c>
       <c r="Q234" s="2"/>
       <c r="R234" t="s" s="2">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="S234" t="s" s="2">
         <v>77</v>
@@ -26929,10 +26897,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -26958,13 +26926,13 @@
         <v>178</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O235" s="2"/>
       <c r="P235" t="s" s="2">
@@ -26990,13 +26958,13 @@
         <v>77</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y235" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Z235" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA235" t="s" s="2">
         <v>77</v>
@@ -27034,13 +27002,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D236" t="s" s="2">
         <v>77</v>
@@ -27065,14 +27033,14 @@
         <v>93</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" t="s" s="2">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>77</v>
@@ -27141,10 +27109,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27244,10 +27212,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -27349,10 +27317,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27392,7 +27360,7 @@
       </c>
       <c r="Q239" s="2"/>
       <c r="R239" t="s" s="2">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="S239" t="s" s="2">
         <v>77</v>
@@ -27454,10 +27422,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -27483,10 +27451,10 @@
         <v>178</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -27513,11 +27481,13 @@
         <v>77</v>
       </c>
       <c r="X240" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y240" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y240" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z240" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA240" t="s" s="2">
         <v>77</v>
@@ -27555,13 +27525,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D241" t="s" s="2">
         <v>77</v>
@@ -27586,16 +27556,16 @@
         <v>93</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>77</v>
@@ -27664,10 +27634,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -27767,10 +27737,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -27872,10 +27842,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -27915,7 +27885,7 @@
       </c>
       <c r="Q244" s="2"/>
       <c r="R244" t="s" s="2">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="S244" t="s" s="2">
         <v>77</v>
@@ -27977,10 +27947,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -28006,13 +27976,13 @@
         <v>178</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O245" s="2"/>
       <c r="P245" t="s" s="2">
@@ -28038,13 +28008,13 @@
         <v>77</v>
       </c>
       <c r="X245" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y245" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Z245" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AA245" t="s" s="2">
         <v>77</v>
@@ -28082,13 +28052,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D246" t="s" s="2">
         <v>77</v>
@@ -28113,14 +28083,14 @@
         <v>93</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" t="s" s="2">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="P246" t="s" s="2">
         <v>77</v>
@@ -28189,10 +28159,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -28292,10 +28262,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -28397,10 +28367,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -28440,7 +28410,7 @@
       </c>
       <c r="Q249" s="2"/>
       <c r="R249" t="s" s="2">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="S249" t="s" s="2">
         <v>77</v>
@@ -28502,10 +28472,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -28528,13 +28498,13 @@
         <v>77</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" s="2"/>
@@ -28605,13 +28575,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D251" t="s" s="2">
         <v>77</v>
@@ -28636,14 +28606,14 @@
         <v>93</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" t="s" s="2">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="P251" t="s" s="2">
         <v>77</v>
@@ -28712,10 +28682,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -28815,10 +28785,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -28920,10 +28890,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -28963,7 +28933,7 @@
       </c>
       <c r="Q254" s="2"/>
       <c r="R254" t="s" s="2">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="S254" t="s" s="2">
         <v>77</v>
@@ -29025,10 +28995,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -29051,13 +29021,13 @@
         <v>77</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
@@ -29128,13 +29098,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D256" t="s" s="2">
         <v>77</v>
@@ -29159,14 +29129,14 @@
         <v>93</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" t="s" s="2">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="P256" t="s" s="2">
         <v>77</v>
@@ -29235,10 +29205,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -29338,10 +29308,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -29443,10 +29413,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -29486,7 +29456,7 @@
       </c>
       <c r="Q259" s="2"/>
       <c r="R259" t="s" s="2">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="S259" t="s" s="2">
         <v>77</v>
@@ -29548,10 +29518,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -29574,13 +29544,13 @@
         <v>77</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
@@ -29651,13 +29621,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D261" t="s" s="2">
         <v>77</v>
@@ -29682,16 +29652,16 @@
         <v>93</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="O261" t="s" s="2">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="P261" t="s" s="2">
         <v>77</v>
@@ -29760,10 +29730,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -29863,10 +29833,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -29968,10 +29938,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -30011,7 +29981,7 @@
       </c>
       <c r="Q264" s="2"/>
       <c r="R264" t="s" s="2">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="S264" t="s" s="2">
         <v>77</v>
@@ -30073,10 +30043,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -30099,16 +30069,16 @@
         <v>77</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="O265" s="2"/>
       <c r="P265" t="s" s="2">
@@ -30178,13 +30148,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D266" t="s" s="2">
         <v>77</v>
@@ -30209,14 +30179,14 @@
         <v>93</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="N266" s="2"/>
       <c r="O266" t="s" s="2">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="P266" t="s" s="2">
         <v>77</v>
@@ -30285,10 +30255,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -30388,10 +30358,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -30493,10 +30463,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -30536,7 +30506,7 @@
       </c>
       <c r="Q269" s="2"/>
       <c r="R269" t="s" s="2">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="S269" t="s" s="2">
         <v>77</v>
@@ -30598,10 +30568,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -30624,13 +30594,13 @@
         <v>77</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
@@ -30701,13 +30671,13 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D271" t="s" s="2">
         <v>77</v>
@@ -30732,16 +30702,16 @@
         <v>93</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="O271" t="s" s="2">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="P271" t="s" s="2">
         <v>77</v>
@@ -30810,10 +30780,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -30913,10 +30883,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -31018,10 +30988,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -31061,7 +31031,7 @@
       </c>
       <c r="Q274" s="2"/>
       <c r="R274" t="s" s="2">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="S274" t="s" s="2">
         <v>77</v>
@@ -31123,10 +31093,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -31149,16 +31119,16 @@
         <v>77</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="O275" s="2"/>
       <c r="P275" t="s" s="2">
@@ -31228,13 +31198,13 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D276" t="s" s="2">
         <v>77</v>
@@ -31259,14 +31229,14 @@
         <v>93</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="N276" s="2"/>
       <c r="O276" t="s" s="2">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="P276" t="s" s="2">
         <v>77</v>
@@ -31335,10 +31305,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -31438,10 +31408,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -31543,10 +31513,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -31586,7 +31556,7 @@
       </c>
       <c r="Q279" s="2"/>
       <c r="R279" t="s" s="2">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="S279" t="s" s="2">
         <v>77</v>
@@ -31648,10 +31618,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -31677,10 +31647,10 @@
         <v>123</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="N280" s="2"/>
       <c r="O280" s="2"/>
@@ -31751,13 +31721,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D281" t="s" s="2">
         <v>77</v>
@@ -31782,14 +31752,14 @@
         <v>93</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" t="s" s="2">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="P281" t="s" s="2">
         <v>77</v>
@@ -31858,10 +31828,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -31961,10 +31931,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -32066,10 +32036,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -32109,7 +32079,7 @@
       </c>
       <c r="Q284" s="2"/>
       <c r="R284" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="S284" t="s" s="2">
         <v>77</v>
@@ -32171,10 +32141,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -32197,13 +32167,13 @@
         <v>77</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N285" s="2"/>
       <c r="O285" s="2"/>
@@ -32274,13 +32244,13 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D286" t="s" s="2">
         <v>77</v>
@@ -32305,14 +32275,14 @@
         <v>93</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="N286" s="2"/>
       <c r="O286" t="s" s="2">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="P286" t="s" s="2">
         <v>77</v>
@@ -32381,10 +32351,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -32484,10 +32454,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -32589,10 +32559,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -32632,7 +32602,7 @@
       </c>
       <c r="Q289" s="2"/>
       <c r="R289" t="s" s="2">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="S289" t="s" s="2">
         <v>77</v>
@@ -32694,10 +32664,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -32720,13 +32690,13 @@
         <v>77</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
@@ -32797,10 +32767,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
@@ -32840,7 +32810,7 @@
       </c>
       <c r="Q291" s="2"/>
       <c r="R291" t="s" s="2">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="S291" t="s" s="2">
         <v>77</v>
@@ -32902,10 +32872,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -32928,13 +32898,13 @@
         <v>77</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N292" s="2"/>
       <c r="O292" s="2"/>
@@ -33005,7 +32975,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>113</v>
@@ -33048,7 +33018,7 @@
       </c>
       <c r="Q293" s="2"/>
       <c r="R293" t="s" s="2">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="S293" t="s" s="2">
         <v>77</v>
@@ -33110,7 +33080,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>122</v>
@@ -33136,13 +33106,13 @@
         <v>77</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N294" s="2"/>
       <c r="O294" s="2"/>
@@ -33344,13 +33314,13 @@
         <v>77</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N296" s="2"/>
       <c r="O296" s="2"/>
